--- a/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/BillPayment(ExistingBene).xlsx
+++ b/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/BillPayment(ExistingBene).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="64">
   <si>
     <t>Case</t>
   </si>
@@ -184,6 +184,33 @@
   </si>
   <si>
     <t>BEGIN UPDATE LP_BILLS L SET L.BILL_STATUS_ID=1 , L.DUE_DATE=TRUNC(SYSDATE) WHERE L.CONSUMER_NO='{ConsumerNo}';COMMIT;END;</t>
+  </si>
+  <si>
+    <t>consumer_number_label_query</t>
+  </si>
+  <si>
+    <t>SELECT CH.CONSUMER_NO_LABEL FROM BPS_COMPANY_CHANNEL CH WHERE CH.COMPANY_CODE = '{Company_Code}' AND CH.CHANNEL_CODE = 'MB'</t>
+  </si>
+  <si>
+    <t>paid_marking_query</t>
+  </si>
+  <si>
+    <t>LP_BillStatus_query</t>
+  </si>
+  <si>
+    <t>partial_payment_check_query</t>
+  </si>
+  <si>
+    <t>partial_payment_amount</t>
+  </si>
+  <si>
+    <t>SELECT CH.IS_PAID_MARKING_REQUIRED FROM BPS_COMPANY_CHANNEL CH WHERE CH.COMPANY_CODE = '{Company_Code}' AND CH.CHANNEL_CODE = 'MB'</t>
+  </si>
+  <si>
+    <t>SELECT LP.BILL_STATUS_ID FROM LP_BILLS LP WHERE LP.CONSUMER_NO = '{ConsumerNo}' and BILLING_MONTH = To_DATE('" + {Billing_Month} + "', 'dd/MM/YYYY')</t>
+  </si>
+  <si>
+    <t>SELECT CH.IS_PARTIAL_PAYMENT_ALLOWED FROM BPS_COMPANY_CHANNEL CH WHERE CH.COMPANY_CODE = '{Company_Code}' AND CH.CHANNEL_CODE = 'MB'</t>
   </si>
 </sst>
 </file>
@@ -513,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z4"/>
+  <dimension ref="A1:AE4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AA9" sqref="AA9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -533,9 +560,10 @@
     <col min="22" max="22" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="139.28515625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="118.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -614,8 +642,23 @@
       <c r="Z1" t="s">
         <v>49</v>
       </c>
+      <c r="AA1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -688,8 +731,23 @@
       <c r="Z2" t="s">
         <v>47</v>
       </c>
+      <c r="AA2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE2">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -762,8 +820,23 @@
       <c r="Z3" t="s">
         <v>47</v>
       </c>
+      <c r="AA3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE3">
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>37</v>
       </c>
@@ -835,6 +908,21 @@
       </c>
       <c r="Z4" t="s">
         <v>47</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE4">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/BillPayment(ExistingBene).xlsx
+++ b/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/BillPayment(ExistingBene).xlsx
@@ -90,9 +90,6 @@
     <t>SELECT AC.DESCRIPTION FROM DC_TRANSACTION_ACTIVITY_CONFIG AC WHERE AC.TRANSACTION_TYPE_ID =(SELECT DT.TRANSACTION_TYPE_ID FROM DC_TRANSACTION DT WHERE DT.TRANSACTION_ID = '</t>
   </si>
   <si>
-    <t>SELECT LB.BILL_AMOUNT,LB.COMPANY_CODE FROM LP_BILLS LB WHERE LB.CONSUMER_NO='{ConsumerNo}' ORDER BY LB.CREATED_ON DESC</t>
-  </si>
-  <si>
     <t>account_no</t>
   </si>
   <si>
@@ -211,6 +208,9 @@
   </si>
   <si>
     <t>SELECT CH.IS_PARTIAL_PAYMENT_ALLOWED FROM BPS_COMPANY_CHANNEL CH WHERE CH.COMPANY_CODE = '{Company_Code}' AND CH.CHANNEL_CODE = 'MB'</t>
+  </si>
+  <si>
+    <t>SELECT LB.BILL_AMOUNT,LB.COMPANY_CODE,LB.DUE_DATE FROM LP_BILLS LB WHERE LB.CONSUMER_NO='{ConsumerNo}' ORDER BY LB.CREATED_ON DESC</t>
   </si>
 </sst>
 </file>
@@ -542,8 +542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AA9" sqref="AA9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -577,7 +577,7 @@
         <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>17</v>
@@ -613,72 +613,72 @@
         <v>18</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T1" t="s">
         <v>24</v>
       </c>
-      <c r="R1" t="s">
-        <v>41</v>
-      </c>
-      <c r="S1" t="s">
-        <v>30</v>
-      </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>25</v>
       </c>
-      <c r="U1" t="s">
-        <v>26</v>
-      </c>
       <c r="V1" t="s">
+        <v>27</v>
+      </c>
+      <c r="W1" t="s">
         <v>28</v>
       </c>
-      <c r="W1" t="s">
-        <v>29</v>
-      </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Y1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Z1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AA1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AB1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC1" t="s">
         <v>57</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>58</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>59</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="H2">
         <v>12345678</v>
@@ -708,40 +708,40 @@
         <v>19</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="T2" t="s">
+        <v>26</v>
+      </c>
+      <c r="V2" t="s">
+        <v>44</v>
+      </c>
+      <c r="W2" t="s">
+        <v>41</v>
+      </c>
+      <c r="X2" t="s">
         <v>43</v>
       </c>
-      <c r="T2" t="s">
-        <v>27</v>
-      </c>
-      <c r="V2" t="s">
-        <v>45</v>
-      </c>
-      <c r="W2" t="s">
-        <v>42</v>
-      </c>
-      <c r="X2" t="s">
-        <v>44</v>
-      </c>
       <c r="Y2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Z2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AA2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AB2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC2" t="s">
         <v>61</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>62</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>63</v>
       </c>
       <c r="AE2">
         <v>2</v>
@@ -749,25 +749,25 @@
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="H3">
         <v>12345678</v>
@@ -797,40 +797,40 @@
         <v>19</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="U3">
         <v>1000</v>
       </c>
       <c r="W3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="X3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Y3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Z3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AA3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AB3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC3" t="s">
         <v>61</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>62</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>63</v>
       </c>
       <c r="AE3">
         <v>2</v>
@@ -838,25 +838,25 @@
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="F4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="H4">
         <v>12345678</v>
@@ -886,40 +886,40 @@
         <v>19</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="T4" t="s">
+        <v>26</v>
+      </c>
+      <c r="V4" t="s">
+        <v>45</v>
+      </c>
+      <c r="W4" t="s">
+        <v>41</v>
+      </c>
+      <c r="X4" t="s">
         <v>43</v>
       </c>
-      <c r="T4" t="s">
-        <v>27</v>
-      </c>
-      <c r="V4" t="s">
+      <c r="Y4" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z4" t="s">
         <v>46</v>
       </c>
-      <c r="W4" t="s">
-        <v>42</v>
-      </c>
-      <c r="X4" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>47</v>
-      </c>
       <c r="AA4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AB4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC4" t="s">
         <v>61</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>62</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>63</v>
       </c>
       <c r="AE4">
         <v>2</v>

--- a/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/BillPayment(ExistingBene).xlsx
+++ b/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/BillPayment(ExistingBene).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="90">
   <si>
     <t>Case</t>
   </si>
@@ -111,30 +111,6 @@
     <t>expiry_date</t>
   </si>
   <si>
-    <t>MEPCO</t>
-  </si>
-  <si>
-    <t>MEPCO001</t>
-  </si>
-  <si>
-    <t>When valid bill details are provided 05151110478500</t>
-  </si>
-  <si>
-    <t>05151110478500</t>
-  </si>
-  <si>
-    <t>When valid bill details are provided 05151110478600</t>
-  </si>
-  <si>
-    <t>05151110478600</t>
-  </si>
-  <si>
-    <t>When valid bill details are provided 05151110478601</t>
-  </si>
-  <si>
-    <t>05151110478601</t>
-  </si>
-  <si>
     <t>instrument_type</t>
   </si>
   <si>
@@ -174,9 +150,6 @@
     <t>BillPayment_ConsumerNo_Value</t>
   </si>
   <si>
-    <t>02197900643103</t>
-  </si>
-  <si>
     <t>Electricity</t>
   </si>
   <si>
@@ -211,6 +184,111 @@
   </si>
   <si>
     <t>SELECT LB.BILL_AMOUNT,LB.COMPANY_CODE,LB.DUE_DATE FROM LP_BILLS LB WHERE LB.CONSUMER_NO='{ConsumerNo}' ORDER BY LB.CREATED_ON DESC</t>
+  </si>
+  <si>
+    <t>K-ELECTRIC</t>
+  </si>
+  <si>
+    <t>0400000615003</t>
+  </si>
+  <si>
+    <t>KESC0001</t>
+  </si>
+  <si>
+    <t>06587901352103</t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>KWSB</t>
+  </si>
+  <si>
+    <t>65009083300070</t>
+  </si>
+  <si>
+    <t>KWSB0001</t>
+  </si>
+  <si>
+    <t>Gas</t>
+  </si>
+  <si>
+    <t>SSGC</t>
+  </si>
+  <si>
+    <t>0782991137</t>
+  </si>
+  <si>
+    <t>SSGC0001</t>
+  </si>
+  <si>
+    <t>Landline</t>
+  </si>
+  <si>
+    <t>SCO</t>
+  </si>
+  <si>
+    <t>1759538</t>
+  </si>
+  <si>
+    <t>SCO00001</t>
+  </si>
+  <si>
+    <t>0400000444470</t>
+  </si>
+  <si>
+    <t>65008900600073</t>
+  </si>
+  <si>
+    <t>0048757038</t>
+  </si>
+  <si>
+    <t>1758405</t>
+  </si>
+  <si>
+    <t>GEPCO</t>
+  </si>
+  <si>
+    <t>15121110774400</t>
+  </si>
+  <si>
+    <t>GEPCO001</t>
+  </si>
+  <si>
+    <t>1111111</t>
+  </si>
+  <si>
+    <t>When valid bill details are provided of Electricity existing_bene</t>
+  </si>
+  <si>
+    <t>When valid bill details are provided of Water existing_bene</t>
+  </si>
+  <si>
+    <t>When valid bill details are provided Gas existing_bene</t>
+  </si>
+  <si>
+    <t>When valid bill details are provided Landline existing_bene</t>
+  </si>
+  <si>
+    <t>When bill is already paid existing_bene</t>
+  </si>
+  <si>
+    <t>When bill is blocked due to allowed days have passed existing_bene</t>
+  </si>
+  <si>
+    <t>When bill is blocked due to 0 amount existing_bene</t>
+  </si>
+  <si>
+    <t>When bill is blocked due to negative amount existing_bene</t>
+  </si>
+  <si>
+    <t>When bill is blocked due bill amount exceeds min and max amount existing_bene</t>
+  </si>
+  <si>
+    <t>When user enter extra payment which is not allowed existing_bene</t>
+  </si>
+  <si>
+    <t>When user enter invalid consumer number existing_bene</t>
   </si>
 </sst>
 </file>
@@ -252,14 +330,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -540,20 +623,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE4"/>
+  <dimension ref="A1:AE12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="61.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="35.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="127.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="185.85546875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="16.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.140625" style="4" customWidth="1"/>
+    <col min="18" max="18" width="16.140625" style="2" customWidth="1"/>
     <col min="19" max="19" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="39.42578125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="18" bestFit="1" customWidth="1"/>
@@ -577,7 +661,7 @@
         <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>17</v>
@@ -616,7 +700,7 @@
         <v>23</v>
       </c>
       <c r="R1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="S1" t="s">
         <v>29</v>
@@ -634,51 +718,51 @@
         <v>28</v>
       </c>
       <c r="X1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="Y1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD1" t="s">
         <v>49</v>
       </c>
-      <c r="Z1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>58</v>
-      </c>
       <c r="AE1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>32</v>
+      <c r="A2" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>33</v>
+        <v>44</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>56</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>31</v>
+        <v>54</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>57</v>
       </c>
       <c r="H2">
         <v>12345678</v>
@@ -707,67 +791,67 @@
       <c r="P2" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>42</v>
+      <c r="Q2" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="T2" t="s">
         <v>26</v>
       </c>
       <c r="V2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="W2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="X2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="Y2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="Z2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA2" t="s">
         <v>46</v>
       </c>
-      <c r="AA2" t="s">
-        <v>55</v>
-      </c>
       <c r="AB2" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="AC2" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="AD2" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="AE2">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>34</v>
+      <c r="A3" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>35</v>
+        <v>44</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>31</v>
+        <v>54</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>62</v>
       </c>
       <c r="H3">
         <v>12345678</v>
@@ -796,67 +880,67 @@
       <c r="P3" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>42</v>
+      <c r="Q3" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="T3" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="U3">
         <v>1000</v>
       </c>
       <c r="W3" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="X3" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="Y3" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="Z3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA3" t="s">
         <v>46</v>
       </c>
-      <c r="AA3" t="s">
-        <v>55</v>
-      </c>
       <c r="AB3" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="AC3" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="AD3" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="AE3">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>36</v>
+      <c r="A4" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>37</v>
+        <v>44</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>31</v>
+        <v>54</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>66</v>
       </c>
       <c r="H4">
         <v>12345678</v>
@@ -885,43 +969,755 @@
       <c r="P4" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="R4" s="4" t="s">
-        <v>42</v>
+      <c r="Q4" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="T4" t="s">
         <v>26</v>
       </c>
       <c r="V4" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="W4" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="X4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H5">
+        <v>12345678</v>
+      </c>
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" t="s">
+        <v>9</v>
+      </c>
+      <c r="N5" t="s">
+        <v>11</v>
+      </c>
+      <c r="O5" t="s">
+        <v>16</v>
+      </c>
+      <c r="P5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T5" t="s">
+        <v>26</v>
+      </c>
+      <c r="V5" t="s">
+        <v>36</v>
+      </c>
+      <c r="W5" t="s">
+        <v>33</v>
+      </c>
+      <c r="X5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="Y4" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z4" t="s">
+      <c r="D6" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6">
+        <v>12345678</v>
+      </c>
+      <c r="I6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N6" t="s">
+        <v>11</v>
+      </c>
+      <c r="O6" t="s">
+        <v>16</v>
+      </c>
+      <c r="P6" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T6" t="s">
+        <v>31</v>
+      </c>
+      <c r="U6">
+        <v>1000</v>
+      </c>
+      <c r="W6" t="s">
+        <v>33</v>
+      </c>
+      <c r="X6" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA6" t="s">
         <v>46</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7">
+        <v>12345678</v>
+      </c>
+      <c r="I7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" t="s">
+        <v>8</v>
+      </c>
+      <c r="L7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M7" t="s">
+        <v>9</v>
+      </c>
+      <c r="N7" t="s">
+        <v>11</v>
+      </c>
+      <c r="O7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T7" t="s">
+        <v>26</v>
+      </c>
+      <c r="V7" t="s">
+        <v>37</v>
+      </c>
+      <c r="W7" t="s">
+        <v>33</v>
+      </c>
+      <c r="X7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8">
+        <v>12345678</v>
+      </c>
+      <c r="I8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" t="s">
+        <v>8</v>
+      </c>
+      <c r="L8" t="s">
+        <v>10</v>
+      </c>
+      <c r="M8" t="s">
+        <v>9</v>
+      </c>
+      <c r="N8" t="s">
+        <v>11</v>
+      </c>
+      <c r="O8" t="s">
+        <v>16</v>
+      </c>
+      <c r="P8" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T8" t="s">
+        <v>26</v>
+      </c>
+      <c r="V8" t="s">
+        <v>36</v>
+      </c>
+      <c r="W8" t="s">
+        <v>33</v>
+      </c>
+      <c r="X8" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9">
+        <v>12345678</v>
+      </c>
+      <c r="I9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" t="s">
+        <v>8</v>
+      </c>
+      <c r="L9" t="s">
+        <v>10</v>
+      </c>
+      <c r="M9" t="s">
+        <v>9</v>
+      </c>
+      <c r="N9" t="s">
+        <v>11</v>
+      </c>
+      <c r="O9" t="s">
+        <v>16</v>
+      </c>
+      <c r="P9" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T9" t="s">
+        <v>31</v>
+      </c>
+      <c r="U9">
+        <v>1000</v>
+      </c>
+      <c r="W9" t="s">
+        <v>33</v>
+      </c>
+      <c r="X9" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="AB4" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE4">
+      <c r="E10" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10">
+        <v>12345678</v>
+      </c>
+      <c r="I10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10" t="s">
+        <v>8</v>
+      </c>
+      <c r="L10" t="s">
+        <v>10</v>
+      </c>
+      <c r="M10" t="s">
+        <v>9</v>
+      </c>
+      <c r="N10" t="s">
+        <v>11</v>
+      </c>
+      <c r="O10" t="s">
+        <v>16</v>
+      </c>
+      <c r="P10" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T10" t="s">
+        <v>26</v>
+      </c>
+      <c r="V10" t="s">
+        <v>37</v>
+      </c>
+      <c r="W10" t="s">
+        <v>33</v>
+      </c>
+      <c r="X10" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="H11">
+        <v>12345678</v>
+      </c>
+      <c r="I11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11" t="s">
+        <v>8</v>
+      </c>
+      <c r="L11" t="s">
+        <v>10</v>
+      </c>
+      <c r="M11" t="s">
+        <v>9</v>
+      </c>
+      <c r="N11" t="s">
+        <v>11</v>
+      </c>
+      <c r="O11" t="s">
+        <v>16</v>
+      </c>
+      <c r="P11" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q11" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T11" t="s">
+        <v>31</v>
+      </c>
+      <c r="U11">
+        <v>1000</v>
+      </c>
+      <c r="W11" t="s">
+        <v>33</v>
+      </c>
+      <c r="X11" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H12">
+        <v>12345678</v>
+      </c>
+      <c r="I12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K12" t="s">
+        <v>8</v>
+      </c>
+      <c r="L12" t="s">
+        <v>10</v>
+      </c>
+      <c r="M12" t="s">
+        <v>9</v>
+      </c>
+      <c r="N12" t="s">
+        <v>11</v>
+      </c>
+      <c r="O12" t="s">
+        <v>16</v>
+      </c>
+      <c r="P12" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q12" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T12" t="s">
+        <v>26</v>
+      </c>
+      <c r="V12" t="s">
+        <v>37</v>
+      </c>
+      <c r="W12" t="s">
+        <v>33</v>
+      </c>
+      <c r="X12" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE12">
         <v>2</v>
       </c>
     </row>

--- a/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/BillPayment(ExistingBene).xlsx
+++ b/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/BillPayment(ExistingBene).xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$32</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -19,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="149">
   <si>
     <t>Case</t>
   </si>
@@ -129,12 +132,6 @@
     <t>Select Instrument_type from BPS_COMPANY_CHANNEL i where i.COMPANY_CODE='{Company_Code}' and i.CHANNEL_CODE='MB'</t>
   </si>
   <si>
-    <t>Abbs</t>
-  </si>
-  <si>
-    <t>Abbc</t>
-  </si>
-  <si>
     <t>Select FIRST_EXECUTION_DATE, LAST_EXECUTION_DATE from DC_SCHEDULED_TRAN_MASTER i where I.CUSTOMER_INFO_ID='{customer_info_id}'</t>
   </si>
   <si>
@@ -153,9 +150,6 @@
     <t>Electricity</t>
   </si>
   <si>
-    <t>BEGIN UPDATE LP_BILLS L SET L.BILL_STATUS_ID=1 , L.DUE_DATE=TRUNC(SYSDATE) WHERE L.CONSUMER_NO='{ConsumerNo}';COMMIT;END;</t>
-  </si>
-  <si>
     <t>consumer_number_label_query</t>
   </si>
   <si>
@@ -255,40 +249,226 @@
     <t>GEPCO001</t>
   </si>
   <si>
-    <t>1111111</t>
-  </si>
-  <si>
-    <t>When valid bill details are provided of Electricity existing_bene</t>
-  </si>
-  <si>
-    <t>When valid bill details are provided of Water existing_bene</t>
-  </si>
-  <si>
-    <t>When valid bill details are provided Gas existing_bene</t>
-  </si>
-  <si>
-    <t>When valid bill details are provided Landline existing_bene</t>
-  </si>
-  <si>
-    <t>When bill is already paid existing_bene</t>
-  </si>
-  <si>
-    <t>When bill is blocked due to allowed days have passed existing_bene</t>
-  </si>
-  <si>
-    <t>When bill is blocked due to 0 amount existing_bene</t>
-  </si>
-  <si>
-    <t>When bill is blocked due to negative amount existing_bene</t>
-  </si>
-  <si>
-    <t>When bill is blocked due bill amount exceeds min and max amount existing_bene</t>
-  </si>
-  <si>
-    <t>When user enter extra payment which is not allowed existing_bene</t>
-  </si>
-  <si>
-    <t>When user enter invalid consumer number existing_bene</t>
+    <t>jango1</t>
+  </si>
+  <si>
+    <t>jango2</t>
+  </si>
+  <si>
+    <t>jango3</t>
+  </si>
+  <si>
+    <t>jango4</t>
+  </si>
+  <si>
+    <t>jango5</t>
+  </si>
+  <si>
+    <t>jango6</t>
+  </si>
+  <si>
+    <t>jango7</t>
+  </si>
+  <si>
+    <t>jango8</t>
+  </si>
+  <si>
+    <t>jango9</t>
+  </si>
+  <si>
+    <t>jango10</t>
+  </si>
+  <si>
+    <t>0400000444373</t>
+  </si>
+  <si>
+    <t>jango12</t>
+  </si>
+  <si>
+    <t>GWASA</t>
+  </si>
+  <si>
+    <t>186297</t>
+  </si>
+  <si>
+    <t>GWASA001</t>
+  </si>
+  <si>
+    <t>jango13</t>
+  </si>
+  <si>
+    <t>65009208300055</t>
+  </si>
+  <si>
+    <t>jango14</t>
+  </si>
+  <si>
+    <t>0400000300460</t>
+  </si>
+  <si>
+    <t>jango15</t>
+  </si>
+  <si>
+    <t>0400000293944</t>
+  </si>
+  <si>
+    <t>19107900422303</t>
+  </si>
+  <si>
+    <t>0400000295998</t>
+  </si>
+  <si>
+    <t>pakistan3</t>
+  </si>
+  <si>
+    <t>0016561000</t>
+  </si>
+  <si>
+    <t>02307900756503</t>
+  </si>
+  <si>
+    <t>0469291000</t>
+  </si>
+  <si>
+    <t>05687900940303</t>
+  </si>
+  <si>
+    <t>0400001263607</t>
+  </si>
+  <si>
+    <t>24747000017803</t>
+  </si>
+  <si>
+    <t>0400001128041</t>
+  </si>
+  <si>
+    <t>0400001128106</t>
+  </si>
+  <si>
+    <t>0400001137806</t>
+  </si>
+  <si>
+    <t>24460094903010</t>
+  </si>
+  <si>
+    <t>0400001137997</t>
+  </si>
+  <si>
+    <t>0400001140165</t>
+  </si>
+  <si>
+    <t>0400001135919</t>
+  </si>
+  <si>
+    <t>08497900070001</t>
+  </si>
+  <si>
+    <t>0400001137083</t>
+  </si>
+  <si>
+    <t>0400001137148</t>
+  </si>
+  <si>
+    <t>When valid bill details are provided of Electricity where password is required bene_psd_y</t>
+  </si>
+  <si>
+    <t>When valid bill details are provided Landline where OTP and password both are not required bene_psd_y</t>
+  </si>
+  <si>
+    <t>When bill is already paid bene_psd_y</t>
+  </si>
+  <si>
+    <t>When bill is blocked due to allowed days have passed bene_psd_y</t>
+  </si>
+  <si>
+    <t>When bill is blocked due to 0 amount bene_psd_y</t>
+  </si>
+  <si>
+    <t>When bill is blocked due to negative amount bene_psd_y</t>
+  </si>
+  <si>
+    <t>When bill is blocked due bill amount is below MIN ammount in HBPS bene_psd_y</t>
+  </si>
+  <si>
+    <t>When user enter extra payment which is not allowed bene_psd_y</t>
+  </si>
+  <si>
+    <t>When bill is blocked due bill amount exceed MAX ammount in HBPS bene_psd_y</t>
+  </si>
+  <si>
+    <t>When company is disabled at HBPS and system wants to perform the transaction bene_psd_y</t>
+  </si>
+  <si>
+    <t>To verify the boundary values of limits bene_psd_y</t>
+  </si>
+  <si>
+    <t>When user's daily limit is exhausted bene_psd_y</t>
+  </si>
+  <si>
+    <t>When user enter valid password bene_invalid_tran_pass</t>
+  </si>
+  <si>
+    <t>When user enter invalid password count 1 bene_invalid_tran_pass</t>
+  </si>
+  <si>
+    <t>When user enter invalid password count 2 bene_invalid_tran_pass</t>
+  </si>
+  <si>
+    <t>When user enter invalid password count 3 bene_invalid_tran_pass</t>
+  </si>
+  <si>
+    <t>When user enter valid password but at this time TXN password locked bene_invalid_tran_pass</t>
+  </si>
+  <si>
+    <t>When user have insufficient balance and perfrom the transaction bene_insufficient_balance</t>
+  </si>
+  <si>
+    <t>To verfiy that user receive IVR call at the time of transaction bene_ivr_calling</t>
+  </si>
+  <si>
+    <t>To verfiy that user receive 2nd IVR call at the time of transaction 1st one is in pending state bene_ivr_calling</t>
+  </si>
+  <si>
+    <t>To verify the boundary values of limits bene_psd_n</t>
+  </si>
+  <si>
+    <t>When valid bill details are provided of Electricity bill payment bene_psd_n</t>
+  </si>
+  <si>
+    <t>When user's daily limit is exhausted bene_psd_n</t>
+  </si>
+  <si>
+    <t>To verify the boundary values of limits bene_prestige_customer</t>
+  </si>
+  <si>
+    <t>When valid bill details are provided of Electricity bill payment bene_prestige_customer</t>
+  </si>
+  <si>
+    <t>When user's daily limit is exhausted bene_prestige_customer</t>
+  </si>
+  <si>
+    <t>To verify the boundary values of limits bene_nrp_customer</t>
+  </si>
+  <si>
+    <t>When valid bill details are provided of Electricity bill payment bene_nrp_customer</t>
+  </si>
+  <si>
+    <t>When user's daily limit is exhausted bene_nrp_customer</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>Expected_Result</t>
+  </si>
+  <si>
+    <t>When valid bill details are provided of Water where password and OTP both are required but OTP should not appear bene_psd_y</t>
+  </si>
+  <si>
+    <t>When valid bill details are provided Gas where OTP is required but OTP should not appear bene_psd_y</t>
   </si>
 </sst>
 </file>
@@ -330,7 +510,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -343,11 +523,65 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -623,15 +857,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE12"/>
+  <dimension ref="A1:AF32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="61.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="151.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="35.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="127.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.42578125" bestFit="1" customWidth="1"/>
@@ -647,7 +881,7 @@
     <col min="27" max="27" width="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -661,7 +895,7 @@
         <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>17</v>
@@ -721,48 +955,48 @@
         <v>30</v>
       </c>
       <c r="Y1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="Z1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>43</v>
-      </c>
       <c r="D2" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>54</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>57</v>
       </c>
       <c r="H2">
         <v>12345678</v>
@@ -792,7 +1026,7 @@
         <v>19</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>34</v>
@@ -800,8 +1034,8 @@
       <c r="T2" t="s">
         <v>26</v>
       </c>
-      <c r="V2" t="s">
-        <v>36</v>
+      <c r="V2" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="W2" t="s">
         <v>33</v>
@@ -810,48 +1044,48 @@
         <v>35</v>
       </c>
       <c r="Y2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Z2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AA2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AB2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE2" s="3">
+        <v>2</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AC2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AE2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="G3" s="5" t="s">
         <v>59</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>62</v>
       </c>
       <c r="H3">
         <v>12345678</v>
@@ -881,7 +1115,7 @@
         <v>19</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R3" s="2" t="s">
         <v>34</v>
@@ -892,6 +1126,9 @@
       <c r="U3">
         <v>1000</v>
       </c>
+      <c r="V3" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="W3" t="s">
         <v>33</v>
       </c>
@@ -899,48 +1136,48 @@
         <v>35</v>
       </c>
       <c r="Y3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Z3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AA3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AB3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE3" s="3">
+        <v>2</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AC3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>53</v>
-      </c>
-      <c r="AE3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="G4" s="5" t="s">
         <v>63</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>66</v>
       </c>
       <c r="H4">
         <v>12345678</v>
@@ -970,7 +1207,7 @@
         <v>19</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R4" s="2" t="s">
         <v>34</v>
@@ -978,8 +1215,8 @@
       <c r="T4" t="s">
         <v>26</v>
       </c>
-      <c r="V4" t="s">
-        <v>37</v>
+      <c r="V4" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="W4" t="s">
         <v>33</v>
@@ -988,48 +1225,48 @@
         <v>35</v>
       </c>
       <c r="Y4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Z4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AA4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AB4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE4" s="3">
+        <v>2</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AC4" t="s">
-        <v>52</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>53</v>
-      </c>
-      <c r="AE4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="G5" s="5" t="s">
         <v>67</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>70</v>
       </c>
       <c r="H5">
         <v>12345678</v>
@@ -1059,7 +1296,7 @@
         <v>19</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R5" s="2" t="s">
         <v>34</v>
@@ -1067,8 +1304,8 @@
       <c r="T5" t="s">
         <v>26</v>
       </c>
-      <c r="V5" t="s">
-        <v>36</v>
+      <c r="V5" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="W5" t="s">
         <v>33</v>
@@ -1077,48 +1314,48 @@
         <v>35</v>
       </c>
       <c r="Y5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Z5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AA5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AB5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE5" s="3">
+        <v>2</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AC5" t="s">
-        <v>52</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>53</v>
-      </c>
-      <c r="AE5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="5" t="s">
         <v>54</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>57</v>
       </c>
       <c r="H6">
         <v>12345678</v>
@@ -1148,7 +1385,7 @@
         <v>19</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R6" s="2" t="s">
         <v>34</v>
@@ -1159,6 +1396,9 @@
       <c r="U6">
         <v>1000</v>
       </c>
+      <c r="V6" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="W6" t="s">
         <v>33</v>
       </c>
@@ -1166,48 +1406,48 @@
         <v>35</v>
       </c>
       <c r="Y6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Z6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AA6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AB6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE6" s="3">
+        <v>2</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AC6" t="s">
-        <v>52</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>53</v>
-      </c>
-      <c r="AE6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="G7" s="5" t="s">
         <v>59</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>62</v>
       </c>
       <c r="H7">
         <v>12345678</v>
@@ -1237,7 +1477,7 @@
         <v>19</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R7" s="2" t="s">
         <v>34</v>
@@ -1245,8 +1485,8 @@
       <c r="T7" t="s">
         <v>26</v>
       </c>
-      <c r="V7" t="s">
-        <v>37</v>
+      <c r="V7" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="W7" t="s">
         <v>33</v>
@@ -1255,48 +1495,48 @@
         <v>35</v>
       </c>
       <c r="Y7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Z7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AA7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AB7" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE7" s="3">
+        <v>2</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AC7" t="s">
-        <v>52</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>53</v>
-      </c>
-      <c r="AE7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="G8" s="5" t="s">
         <v>63</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>66</v>
       </c>
       <c r="H8">
         <v>12345678</v>
@@ -1326,7 +1566,7 @@
         <v>19</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R8" s="2" t="s">
         <v>34</v>
@@ -1334,8 +1574,8 @@
       <c r="T8" t="s">
         <v>26</v>
       </c>
-      <c r="V8" t="s">
-        <v>36</v>
+      <c r="V8" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="W8" t="s">
         <v>33</v>
@@ -1344,48 +1584,48 @@
         <v>35</v>
       </c>
       <c r="Y8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Z8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AA8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AB8" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE8" s="3">
+        <v>2</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AC8" t="s">
-        <v>52</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>53</v>
-      </c>
-      <c r="AE8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="4" t="s">
+      <c r="G9" s="5" t="s">
         <v>67</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>70</v>
       </c>
       <c r="H9">
         <v>12345678</v>
@@ -1415,7 +1655,7 @@
         <v>19</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R9" s="2" t="s">
         <v>34</v>
@@ -1426,6 +1666,9 @@
       <c r="U9">
         <v>1000</v>
       </c>
+      <c r="V9" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="W9" t="s">
         <v>33</v>
       </c>
@@ -1433,48 +1676,48 @@
         <v>35</v>
       </c>
       <c r="Y9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Z9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AA9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AB9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE9" s="3">
+        <v>2</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AC9" t="s">
-        <v>52</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>53</v>
-      </c>
-      <c r="AE9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="5" t="s">
         <v>54</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>57</v>
       </c>
       <c r="H10">
         <v>12345678</v>
@@ -1504,7 +1747,7 @@
         <v>19</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R10" s="2" t="s">
         <v>34</v>
@@ -1512,8 +1755,8 @@
       <c r="T10" t="s">
         <v>26</v>
       </c>
-      <c r="V10" t="s">
-        <v>37</v>
+      <c r="V10" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="W10" t="s">
         <v>33</v>
@@ -1522,48 +1765,48 @@
         <v>35</v>
       </c>
       <c r="Y10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Z10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AA10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AB10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE10" s="3">
+        <v>2</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AC10" t="s">
-        <v>52</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>53</v>
-      </c>
-      <c r="AE10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="G11" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H11">
         <v>12345678</v>
@@ -1593,7 +1836,7 @@
         <v>19</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R11" s="2" t="s">
         <v>34</v>
@@ -1604,6 +1847,9 @@
       <c r="U11">
         <v>1000</v>
       </c>
+      <c r="V11" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="W11" t="s">
         <v>33</v>
       </c>
@@ -1611,48 +1857,48 @@
         <v>35</v>
       </c>
       <c r="Y11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Z11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AA11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AB11" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE11" s="3">
+        <v>501</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AC11" t="s">
-        <v>52</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>53</v>
-      </c>
-      <c r="AE11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="5" t="s">
         <v>54</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>70</v>
       </c>
       <c r="H12">
         <v>12345678</v>
@@ -1682,7 +1928,7 @@
         <v>19</v>
       </c>
       <c r="Q12" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R12" s="2" t="s">
         <v>34</v>
@@ -1690,8 +1936,8 @@
       <c r="T12" t="s">
         <v>26</v>
       </c>
-      <c r="V12" t="s">
-        <v>37</v>
+      <c r="V12" s="3" t="s">
+        <v>86</v>
       </c>
       <c r="W12" t="s">
         <v>33</v>
@@ -1700,28 +1946,1844 @@
         <v>35</v>
       </c>
       <c r="Y12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Z12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AA12" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AB12" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE12" s="3">
+        <v>2</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="G13" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H13">
+        <v>12345678</v>
+      </c>
+      <c r="I13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K13" t="s">
+        <v>8</v>
+      </c>
+      <c r="L13" t="s">
+        <v>10</v>
+      </c>
+      <c r="M13" t="s">
+        <v>9</v>
+      </c>
+      <c r="N13" t="s">
+        <v>11</v>
+      </c>
+      <c r="O13" t="s">
+        <v>16</v>
+      </c>
+      <c r="P13" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q13" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T13" t="s">
+        <v>31</v>
+      </c>
+      <c r="U13">
+        <v>1000</v>
+      </c>
+      <c r="V13" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="W13" t="s">
+        <v>33</v>
+      </c>
+      <c r="X13" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>2</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H14">
+        <v>12345678</v>
+      </c>
+      <c r="I14" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K14" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" t="s">
+        <v>10</v>
+      </c>
+      <c r="M14" t="s">
+        <v>9</v>
+      </c>
+      <c r="N14" t="s">
+        <v>11</v>
+      </c>
+      <c r="O14" t="s">
+        <v>16</v>
+      </c>
+      <c r="P14" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q14" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T14" t="s">
+        <v>26</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="W14" t="s">
+        <v>33</v>
+      </c>
+      <c r="X14" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE14" s="3">
+        <v>2</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="AD12" t="s">
-        <v>53</v>
-      </c>
-      <c r="AE12">
+      <c r="E15" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H15">
+        <v>12345678</v>
+      </c>
+      <c r="I15" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K15" t="s">
+        <v>8</v>
+      </c>
+      <c r="L15" t="s">
+        <v>10</v>
+      </c>
+      <c r="M15" t="s">
+        <v>9</v>
+      </c>
+      <c r="N15" t="s">
+        <v>11</v>
+      </c>
+      <c r="O15" t="s">
+        <v>16</v>
+      </c>
+      <c r="P15" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q15" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T15" t="s">
+        <v>26</v>
+      </c>
+      <c r="V15" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="W15" t="s">
+        <v>33</v>
+      </c>
+      <c r="X15" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE15" s="3">
         <v>2</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H16">
+        <v>12345678</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K16" t="s">
+        <v>8</v>
+      </c>
+      <c r="L16" t="s">
+        <v>10</v>
+      </c>
+      <c r="M16" t="s">
+        <v>9</v>
+      </c>
+      <c r="N16" t="s">
+        <v>11</v>
+      </c>
+      <c r="O16" t="s">
+        <v>16</v>
+      </c>
+      <c r="P16" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q16" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T16" t="s">
+        <v>26</v>
+      </c>
+      <c r="V16" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="W16" t="s">
+        <v>33</v>
+      </c>
+      <c r="X16" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE16" s="3">
+        <v>2</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H17">
+        <v>12345678</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K17" t="s">
+        <v>8</v>
+      </c>
+      <c r="L17" t="s">
+        <v>10</v>
+      </c>
+      <c r="M17" t="s">
+        <v>9</v>
+      </c>
+      <c r="N17" t="s">
+        <v>11</v>
+      </c>
+      <c r="O17" t="s">
+        <v>16</v>
+      </c>
+      <c r="P17" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q17" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T17" t="s">
+        <v>31</v>
+      </c>
+      <c r="U17">
+        <v>1000</v>
+      </c>
+      <c r="V17" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="W17" t="s">
+        <v>33</v>
+      </c>
+      <c r="X17" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE17" s="3">
+        <v>2</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H18">
+        <v>12345678</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K18" t="s">
+        <v>8</v>
+      </c>
+      <c r="L18" t="s">
+        <v>10</v>
+      </c>
+      <c r="M18" t="s">
+        <v>9</v>
+      </c>
+      <c r="N18" t="s">
+        <v>11</v>
+      </c>
+      <c r="O18" t="s">
+        <v>16</v>
+      </c>
+      <c r="P18" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q18" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T18" t="s">
+        <v>26</v>
+      </c>
+      <c r="V18" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="W18" t="s">
+        <v>33</v>
+      </c>
+      <c r="X18" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE18" s="3">
+        <v>2</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H19">
+        <v>12345678</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K19" t="s">
+        <v>8</v>
+      </c>
+      <c r="L19" t="s">
+        <v>10</v>
+      </c>
+      <c r="M19" t="s">
+        <v>9</v>
+      </c>
+      <c r="N19" t="s">
+        <v>11</v>
+      </c>
+      <c r="O19" t="s">
+        <v>16</v>
+      </c>
+      <c r="P19" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q19" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="R19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T19" t="s">
+        <v>26</v>
+      </c>
+      <c r="V19" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="W19" t="s">
+        <v>33</v>
+      </c>
+      <c r="X19" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE19" s="3">
+        <v>2</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H20">
+        <v>12345678</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K20" t="s">
+        <v>8</v>
+      </c>
+      <c r="L20" t="s">
+        <v>10</v>
+      </c>
+      <c r="M20" t="s">
+        <v>9</v>
+      </c>
+      <c r="N20" t="s">
+        <v>11</v>
+      </c>
+      <c r="O20" t="s">
+        <v>16</v>
+      </c>
+      <c r="P20" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q20" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="R20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T20" t="s">
+        <v>31</v>
+      </c>
+      <c r="U20">
+        <v>1000</v>
+      </c>
+      <c r="V20" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="W20" t="s">
+        <v>33</v>
+      </c>
+      <c r="X20" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE20" s="3">
+        <v>2</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H21">
+        <v>12345678</v>
+      </c>
+      <c r="I21" t="s">
+        <v>20</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K21" t="s">
+        <v>8</v>
+      </c>
+      <c r="L21" t="s">
+        <v>10</v>
+      </c>
+      <c r="M21" t="s">
+        <v>9</v>
+      </c>
+      <c r="N21" t="s">
+        <v>11</v>
+      </c>
+      <c r="O21" t="s">
+        <v>16</v>
+      </c>
+      <c r="P21" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q21" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="R21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T21" t="s">
+        <v>26</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="W21" t="s">
+        <v>33</v>
+      </c>
+      <c r="X21" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE21" s="3">
+        <v>2</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H22">
+        <v>12345678</v>
+      </c>
+      <c r="I22" t="s">
+        <v>20</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K22" t="s">
+        <v>8</v>
+      </c>
+      <c r="L22" t="s">
+        <v>10</v>
+      </c>
+      <c r="M22" t="s">
+        <v>9</v>
+      </c>
+      <c r="N22" t="s">
+        <v>11</v>
+      </c>
+      <c r="O22" t="s">
+        <v>16</v>
+      </c>
+      <c r="P22" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q22" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T22" t="s">
+        <v>26</v>
+      </c>
+      <c r="V22" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="W22" t="s">
+        <v>33</v>
+      </c>
+      <c r="X22" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE22" s="3">
+        <v>2</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H23">
+        <v>12345678</v>
+      </c>
+      <c r="I23" t="s">
+        <v>20</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K23" t="s">
+        <v>8</v>
+      </c>
+      <c r="L23" t="s">
+        <v>10</v>
+      </c>
+      <c r="M23" t="s">
+        <v>9</v>
+      </c>
+      <c r="N23" t="s">
+        <v>11</v>
+      </c>
+      <c r="O23" t="s">
+        <v>16</v>
+      </c>
+      <c r="P23" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q23" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T23" t="s">
+        <v>31</v>
+      </c>
+      <c r="U23">
+        <v>1000</v>
+      </c>
+      <c r="V23" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="W23" t="s">
+        <v>33</v>
+      </c>
+      <c r="X23" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE23" s="3">
+        <v>2</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H24">
+        <v>12345678</v>
+      </c>
+      <c r="I24" t="s">
+        <v>20</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K24" t="s">
+        <v>8</v>
+      </c>
+      <c r="L24" t="s">
+        <v>10</v>
+      </c>
+      <c r="M24" t="s">
+        <v>9</v>
+      </c>
+      <c r="N24" t="s">
+        <v>11</v>
+      </c>
+      <c r="O24" t="s">
+        <v>16</v>
+      </c>
+      <c r="P24" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q24" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="R24" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T24" t="s">
+        <v>26</v>
+      </c>
+      <c r="V24" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="W24" t="s">
+        <v>33</v>
+      </c>
+      <c r="X24" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE24" s="3">
+        <v>2</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H25">
+        <v>12345678</v>
+      </c>
+      <c r="I25" t="s">
+        <v>20</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K25" t="s">
+        <v>8</v>
+      </c>
+      <c r="L25" t="s">
+        <v>10</v>
+      </c>
+      <c r="M25" t="s">
+        <v>9</v>
+      </c>
+      <c r="N25" t="s">
+        <v>11</v>
+      </c>
+      <c r="O25" t="s">
+        <v>16</v>
+      </c>
+      <c r="P25" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q25" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="R25" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T25" t="s">
+        <v>31</v>
+      </c>
+      <c r="U25">
+        <v>1000</v>
+      </c>
+      <c r="V25" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="W25" t="s">
+        <v>33</v>
+      </c>
+      <c r="X25" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE25" s="3">
+        <v>2</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H26">
+        <v>12345678</v>
+      </c>
+      <c r="I26" t="s">
+        <v>20</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K26" t="s">
+        <v>8</v>
+      </c>
+      <c r="L26" t="s">
+        <v>10</v>
+      </c>
+      <c r="M26" t="s">
+        <v>9</v>
+      </c>
+      <c r="N26" t="s">
+        <v>11</v>
+      </c>
+      <c r="O26" t="s">
+        <v>16</v>
+      </c>
+      <c r="P26" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q26" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="R26" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T26" t="s">
+        <v>26</v>
+      </c>
+      <c r="V26" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="W26" t="s">
+        <v>33</v>
+      </c>
+      <c r="X26" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE26" s="3">
+        <v>2</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H27">
+        <v>12345678</v>
+      </c>
+      <c r="I27" t="s">
+        <v>20</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K27" t="s">
+        <v>8</v>
+      </c>
+      <c r="L27" t="s">
+        <v>10</v>
+      </c>
+      <c r="M27" t="s">
+        <v>9</v>
+      </c>
+      <c r="N27" t="s">
+        <v>11</v>
+      </c>
+      <c r="O27" t="s">
+        <v>16</v>
+      </c>
+      <c r="P27" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q27" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="R27" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T27" t="s">
+        <v>26</v>
+      </c>
+      <c r="V27" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="W27" t="s">
+        <v>33</v>
+      </c>
+      <c r="X27" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE27" s="3">
+        <v>2</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H28">
+        <v>12345678</v>
+      </c>
+      <c r="I28" t="s">
+        <v>20</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K28" t="s">
+        <v>8</v>
+      </c>
+      <c r="L28" t="s">
+        <v>10</v>
+      </c>
+      <c r="M28" t="s">
+        <v>9</v>
+      </c>
+      <c r="N28" t="s">
+        <v>11</v>
+      </c>
+      <c r="O28" t="s">
+        <v>16</v>
+      </c>
+      <c r="P28" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q28" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="R28" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T28" t="s">
+        <v>31</v>
+      </c>
+      <c r="U28">
+        <v>1000</v>
+      </c>
+      <c r="V28" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="W28" t="s">
+        <v>33</v>
+      </c>
+      <c r="X28" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE28" s="3">
+        <v>2</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H29">
+        <v>12345678</v>
+      </c>
+      <c r="I29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K29" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" t="s">
+        <v>10</v>
+      </c>
+      <c r="M29" t="s">
+        <v>9</v>
+      </c>
+      <c r="N29" t="s">
+        <v>11</v>
+      </c>
+      <c r="O29" t="s">
+        <v>16</v>
+      </c>
+      <c r="P29" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q29" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="R29" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T29" t="s">
+        <v>26</v>
+      </c>
+      <c r="V29" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="W29" t="s">
+        <v>33</v>
+      </c>
+      <c r="X29" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE29" s="3">
+        <v>2</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H30">
+        <v>12345678</v>
+      </c>
+      <c r="I30" t="s">
+        <v>20</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K30" t="s">
+        <v>8</v>
+      </c>
+      <c r="L30" t="s">
+        <v>10</v>
+      </c>
+      <c r="M30" t="s">
+        <v>9</v>
+      </c>
+      <c r="N30" t="s">
+        <v>11</v>
+      </c>
+      <c r="O30" t="s">
+        <v>16</v>
+      </c>
+      <c r="P30" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q30" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="R30" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T30" t="s">
+        <v>26</v>
+      </c>
+      <c r="V30" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="W30" t="s">
+        <v>33</v>
+      </c>
+      <c r="X30" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE30" s="3">
+        <v>2</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H31">
+        <v>12345678</v>
+      </c>
+      <c r="I31" t="s">
+        <v>20</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K31" t="s">
+        <v>8</v>
+      </c>
+      <c r="L31" t="s">
+        <v>10</v>
+      </c>
+      <c r="M31" t="s">
+        <v>9</v>
+      </c>
+      <c r="N31" t="s">
+        <v>11</v>
+      </c>
+      <c r="O31" t="s">
+        <v>16</v>
+      </c>
+      <c r="P31" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q31" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="R31" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T31" t="s">
+        <v>31</v>
+      </c>
+      <c r="U31">
+        <v>1000</v>
+      </c>
+      <c r="V31" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="W31" t="s">
+        <v>33</v>
+      </c>
+      <c r="X31" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE31" s="3">
+        <v>2</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H32">
+        <v>12345678</v>
+      </c>
+      <c r="I32" t="s">
+        <v>20</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K32" t="s">
+        <v>8</v>
+      </c>
+      <c r="L32" t="s">
+        <v>10</v>
+      </c>
+      <c r="M32" t="s">
+        <v>9</v>
+      </c>
+      <c r="N32" t="s">
+        <v>11</v>
+      </c>
+      <c r="O32" t="s">
+        <v>16</v>
+      </c>
+      <c r="P32" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q32" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="R32" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T32" t="s">
+        <v>26</v>
+      </c>
+      <c r="V32" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="W32" t="s">
+        <v>33</v>
+      </c>
+      <c r="X32" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE32" s="3">
+        <v>2</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:A32"/>
+  <conditionalFormatting sqref="A2">
+    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1 A33:A1048576">
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A32">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/BillPayment(ExistingBene).xlsx
+++ b/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/BillPayment(ExistingBene).xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="151">
   <si>
     <t>Case</t>
   </si>
@@ -469,6 +469,12 @@
   </si>
   <si>
     <t>When valid bill details are provided Gas where OTP is required but OTP should not appear bene_psd_y</t>
+  </si>
+  <si>
+    <t>FCY_Check</t>
+  </si>
+  <si>
+    <t>conversion_query</t>
   </si>
 </sst>
 </file>
@@ -857,31 +863,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF32"/>
+  <dimension ref="A1:AH32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AH2" sqref="AH2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="151.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="127.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="185.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.140625" style="2" customWidth="1"/>
-    <col min="19" max="19" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="39.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="139.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="118.5703125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="127.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="185.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.140625" style="2" customWidth="1"/>
+    <col min="20" max="20" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="139.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="118.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -889,2885 +896,2891 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>3</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>4</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>5</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>6</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>7</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>32</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>29</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>24</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>25</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>27</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>28</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>30</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>39</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>38</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>42</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>44</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>45</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>46</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>47</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>146</v>
       </c>
+      <c r="AH1" t="s">
+        <v>150</v>
+      </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>12345678</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>8</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>10</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>9</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>11</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>16</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="R2" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>26</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="W2" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>33</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>35</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>37</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>36</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>43</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>48</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>49</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>50</v>
       </c>
-      <c r="AE2" s="3">
+      <c r="AF2" s="3">
         <v>2</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>12345678</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>8</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>10</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>9</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>11</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>16</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="5" t="s">
+      <c r="R3" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>31</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>1000</v>
       </c>
-      <c r="V3" s="3" t="s">
+      <c r="W3" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>33</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>35</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>37</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>36</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>43</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>48</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>49</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>50</v>
       </c>
-      <c r="AE3" s="3">
+      <c r="AF3" s="3">
         <v>2</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AG3" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="H4" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>12345678</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>8</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>10</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>9</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>11</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>16</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="5" t="s">
+      <c r="R4" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="R4" s="2" t="s">
+      <c r="S4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>26</v>
       </c>
-      <c r="V4" s="3" t="s">
+      <c r="W4" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>33</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>35</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>37</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>36</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>43</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>48</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>49</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>50</v>
       </c>
-      <c r="AE4" s="3">
+      <c r="AF4" s="3">
         <v>2</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AG4" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="F5" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="H5" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>12345678</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>8</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>10</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>9</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>11</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>16</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>19</v>
       </c>
-      <c r="Q5" s="5" t="s">
+      <c r="R5" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="R5" s="2" t="s">
+      <c r="S5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>26</v>
       </c>
-      <c r="V5" s="3" t="s">
+      <c r="W5" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>33</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>35</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>37</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>36</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>43</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>48</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>49</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>50</v>
       </c>
-      <c r="AE5" s="3">
+      <c r="AF5" s="3">
         <v>2</v>
       </c>
-      <c r="AF5" t="s">
+      <c r="AG5" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="F6" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="H6" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>12345678</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>8</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>10</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>9</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>11</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>16</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>19</v>
       </c>
-      <c r="Q6" s="5" t="s">
+      <c r="R6" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="R6" s="2" t="s">
+      <c r="S6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>31</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>1000</v>
       </c>
-      <c r="V6" s="3" t="s">
+      <c r="W6" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>33</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>35</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>37</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>36</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>43</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>48</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>49</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>50</v>
       </c>
-      <c r="AE6" s="3">
+      <c r="AF6" s="3">
         <v>2</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="AG6" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="F7" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="H7" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>12345678</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>8</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>10</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>9</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>11</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>16</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>19</v>
       </c>
-      <c r="Q7" s="5" t="s">
+      <c r="R7" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="R7" s="2" t="s">
+      <c r="S7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>26</v>
       </c>
-      <c r="V7" s="3" t="s">
+      <c r="W7" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>33</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>35</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>37</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>36</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>43</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>48</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>49</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>50</v>
       </c>
-      <c r="AE7" s="3">
+      <c r="AF7" s="3">
         <v>2</v>
       </c>
-      <c r="AF7" t="s">
+      <c r="AG7" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="F8" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="H8" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>12345678</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>8</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>10</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>9</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>11</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>16</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>19</v>
       </c>
-      <c r="Q8" s="5" t="s">
+      <c r="R8" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="R8" s="2" t="s">
+      <c r="S8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>26</v>
       </c>
-      <c r="V8" s="3" t="s">
+      <c r="W8" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>33</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>35</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>37</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>36</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>43</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>48</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>49</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>50</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>2</v>
       </c>
-      <c r="AF8" t="s">
+      <c r="AG8" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="F9" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="H9" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>12345678</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>8</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>10</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>9</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>11</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>16</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>19</v>
       </c>
-      <c r="Q9" s="5" t="s">
+      <c r="R9" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="R9" s="2" t="s">
+      <c r="S9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>31</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>1000</v>
       </c>
-      <c r="V9" s="3" t="s">
+      <c r="W9" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>33</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>35</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>37</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AA9" t="s">
         <v>36</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AB9" t="s">
         <v>43</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>48</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>49</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>50</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>2</v>
       </c>
-      <c r="AF9" t="s">
+      <c r="AG9" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="E10" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="F10" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="H10" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>12345678</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="K10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>8</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>10</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>9</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>11</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>16</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>19</v>
       </c>
-      <c r="Q10" s="5" t="s">
+      <c r="R10" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="R10" s="2" t="s">
+      <c r="S10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="T10" t="s">
+      <c r="U10" t="s">
         <v>26</v>
       </c>
-      <c r="V10" s="3" t="s">
+      <c r="W10" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="W10" t="s">
+      <c r="X10" t="s">
         <v>33</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>35</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>37</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>36</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AB10" t="s">
         <v>43</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>48</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>49</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>50</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>2</v>
       </c>
-      <c r="AF10" t="s">
+      <c r="AG10" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="D11" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="E11" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="F11" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="H11" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>12345678</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="K11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>8</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>10</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>9</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>11</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>16</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>19</v>
       </c>
-      <c r="Q11" s="5" t="s">
+      <c r="R11" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="R11" s="2" t="s">
+      <c r="S11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="T11" t="s">
+      <c r="U11" t="s">
         <v>31</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>1000</v>
       </c>
-      <c r="V11" s="3" t="s">
+      <c r="W11" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="W11" t="s">
+      <c r="X11" t="s">
         <v>33</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
         <v>35</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>37</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AA11" t="s">
         <v>36</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AB11" t="s">
         <v>43</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
         <v>48</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AD11" t="s">
         <v>49</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>50</v>
       </c>
-      <c r="AE11" s="3">
+      <c r="AF11" s="3">
         <v>501</v>
       </c>
-      <c r="AF11" t="s">
+      <c r="AG11" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="D12" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="E12" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="F12" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="H12" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>12345678</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="K12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>8</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>10</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>9</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>11</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>16</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>19</v>
       </c>
-      <c r="Q12" s="5" t="s">
+      <c r="R12" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="R12" s="2" t="s">
+      <c r="S12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="T12" t="s">
+      <c r="U12" t="s">
         <v>26</v>
       </c>
-      <c r="V12" s="3" t="s">
+      <c r="W12" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="W12" t="s">
+      <c r="X12" t="s">
         <v>33</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Y12" t="s">
         <v>35</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>37</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="AA12" t="s">
         <v>36</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AB12" t="s">
         <v>43</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>48</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AD12" t="s">
         <v>49</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>50</v>
       </c>
-      <c r="AE12" s="3">
+      <c r="AF12" s="3">
         <v>2</v>
       </c>
-      <c r="AF12" t="s">
+      <c r="AG12" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="D13" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="E13" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="F13" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="H13" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>12345678</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>20</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="K13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>8</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>10</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>9</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>11</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>16</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>19</v>
       </c>
-      <c r="Q13" s="5" t="s">
+      <c r="R13" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="R13" s="2" t="s">
+      <c r="S13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="T13" t="s">
+      <c r="U13" t="s">
         <v>31</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>1000</v>
       </c>
-      <c r="V13" s="3" t="s">
+      <c r="W13" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="W13" t="s">
+      <c r="X13" t="s">
         <v>33</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Y13" t="s">
         <v>35</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>37</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="AA13" t="s">
         <v>36</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AB13" t="s">
         <v>43</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
         <v>48</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AD13" t="s">
         <v>49</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>50</v>
       </c>
-      <c r="AE13" s="3">
+      <c r="AF13" s="3">
         <v>2</v>
       </c>
-      <c r="AF13" t="s">
+      <c r="AG13" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="D14" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="E14" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="F14" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="H14" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>12345678</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="K14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>8</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>10</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>9</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>11</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>16</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>19</v>
       </c>
-      <c r="Q14" s="5" t="s">
+      <c r="R14" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="R14" s="2" t="s">
+      <c r="S14" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="T14" t="s">
+      <c r="U14" t="s">
         <v>26</v>
       </c>
-      <c r="V14" s="3" t="s">
+      <c r="W14" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="W14" t="s">
+      <c r="X14" t="s">
         <v>33</v>
       </c>
-      <c r="X14" t="s">
+      <c r="Y14" t="s">
         <v>35</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>37</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="AA14" t="s">
         <v>36</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="AB14" t="s">
         <v>43</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AC14" t="s">
         <v>48</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AD14" t="s">
         <v>49</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AE14" t="s">
         <v>50</v>
       </c>
-      <c r="AE14" s="3">
+      <c r="AF14" s="3">
         <v>2</v>
       </c>
-      <c r="AF14" t="s">
+      <c r="AG14" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="D15" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="E15" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="F15" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="H15" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>12345678</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="K15" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>8</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>10</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>9</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>11</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>16</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>19</v>
       </c>
-      <c r="Q15" s="5" t="s">
+      <c r="R15" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="R15" s="2" t="s">
+      <c r="S15" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="T15" t="s">
+      <c r="U15" t="s">
         <v>26</v>
       </c>
-      <c r="V15" s="3" t="s">
+      <c r="W15" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="W15" t="s">
+      <c r="X15" t="s">
         <v>33</v>
       </c>
-      <c r="X15" t="s">
+      <c r="Y15" t="s">
         <v>35</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>37</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="AA15" t="s">
         <v>36</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="AB15" t="s">
         <v>43</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
         <v>48</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AD15" t="s">
         <v>49</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>50</v>
       </c>
-      <c r="AE15" s="3">
+      <c r="AF15" s="3">
         <v>2</v>
       </c>
-      <c r="AF15" t="s">
+      <c r="AG15" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="D16" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="E16" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="F16" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="H16" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>12345678</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="J16" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="K16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>8</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>10</v>
       </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
         <v>9</v>
       </c>
-      <c r="N16" t="s">
+      <c r="O16" t="s">
         <v>11</v>
       </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
         <v>16</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>19</v>
       </c>
-      <c r="Q16" s="5" t="s">
+      <c r="R16" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="R16" s="2" t="s">
+      <c r="S16" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="T16" t="s">
+      <c r="U16" t="s">
         <v>26</v>
       </c>
-      <c r="V16" s="3" t="s">
+      <c r="W16" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="W16" t="s">
+      <c r="X16" t="s">
         <v>33</v>
       </c>
-      <c r="X16" t="s">
+      <c r="Y16" t="s">
         <v>35</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>37</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="AA16" t="s">
         <v>36</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="AB16" t="s">
         <v>43</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AC16" t="s">
         <v>48</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AD16" t="s">
         <v>49</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AE16" t="s">
         <v>50</v>
       </c>
-      <c r="AE16" s="3">
+      <c r="AF16" s="3">
         <v>2</v>
       </c>
-      <c r="AF16" t="s">
+      <c r="AG16" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="D17" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="E17" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="F17" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="H17" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>12345678</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="J17" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="K17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>8</v>
       </c>
-      <c r="L17" t="s">
+      <c r="M17" t="s">
         <v>10</v>
       </c>
-      <c r="M17" t="s">
+      <c r="N17" t="s">
         <v>9</v>
       </c>
-      <c r="N17" t="s">
+      <c r="O17" t="s">
         <v>11</v>
       </c>
-      <c r="O17" t="s">
+      <c r="P17" t="s">
         <v>16</v>
       </c>
-      <c r="P17" t="s">
+      <c r="Q17" t="s">
         <v>19</v>
       </c>
-      <c r="Q17" s="5" t="s">
+      <c r="R17" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="R17" s="2" t="s">
+      <c r="S17" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="T17" t="s">
+      <c r="U17" t="s">
         <v>31</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>1000</v>
       </c>
-      <c r="V17" s="3" t="s">
+      <c r="W17" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="W17" t="s">
+      <c r="X17" t="s">
         <v>33</v>
       </c>
-      <c r="X17" t="s">
+      <c r="Y17" t="s">
         <v>35</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>37</v>
       </c>
-      <c r="Z17" t="s">
+      <c r="AA17" t="s">
         <v>36</v>
       </c>
-      <c r="AA17" t="s">
+      <c r="AB17" t="s">
         <v>43</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AC17" t="s">
         <v>48</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AD17" t="s">
         <v>49</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AE17" t="s">
         <v>50</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>2</v>
       </c>
-      <c r="AF17" t="s">
+      <c r="AG17" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="D18" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="E18" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="F18" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="G18" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="H18" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>12345678</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="J18" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="K18" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>8</v>
       </c>
-      <c r="L18" t="s">
+      <c r="M18" t="s">
         <v>10</v>
       </c>
-      <c r="M18" t="s">
+      <c r="N18" t="s">
         <v>9</v>
       </c>
-      <c r="N18" t="s">
+      <c r="O18" t="s">
         <v>11</v>
       </c>
-      <c r="O18" t="s">
+      <c r="P18" t="s">
         <v>16</v>
       </c>
-      <c r="P18" t="s">
+      <c r="Q18" t="s">
         <v>19</v>
       </c>
-      <c r="Q18" s="5" t="s">
+      <c r="R18" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="R18" s="2" t="s">
+      <c r="S18" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="T18" t="s">
+      <c r="U18" t="s">
         <v>26</v>
       </c>
-      <c r="V18" s="3" t="s">
+      <c r="W18" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="W18" t="s">
+      <c r="X18" t="s">
         <v>33</v>
       </c>
-      <c r="X18" t="s">
+      <c r="Y18" t="s">
         <v>35</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="Z18" t="s">
         <v>37</v>
       </c>
-      <c r="Z18" t="s">
+      <c r="AA18" t="s">
         <v>36</v>
       </c>
-      <c r="AA18" t="s">
+      <c r="AB18" t="s">
         <v>43</v>
       </c>
-      <c r="AB18" t="s">
+      <c r="AC18" t="s">
         <v>48</v>
       </c>
-      <c r="AC18" t="s">
+      <c r="AD18" t="s">
         <v>49</v>
       </c>
-      <c r="AD18" t="s">
+      <c r="AE18" t="s">
         <v>50</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>2</v>
       </c>
-      <c r="AF18" t="s">
+      <c r="AG18" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="D19" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="E19" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="F19" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="H19" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>12345678</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="J19" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="K19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>8</v>
       </c>
-      <c r="L19" t="s">
+      <c r="M19" t="s">
         <v>10</v>
       </c>
-      <c r="M19" t="s">
+      <c r="N19" t="s">
         <v>9</v>
       </c>
-      <c r="N19" t="s">
+      <c r="O19" t="s">
         <v>11</v>
       </c>
-      <c r="O19" t="s">
+      <c r="P19" t="s">
         <v>16</v>
       </c>
-      <c r="P19" t="s">
+      <c r="Q19" t="s">
         <v>19</v>
       </c>
-      <c r="Q19" s="5" t="s">
+      <c r="R19" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="R19" s="2" t="s">
+      <c r="S19" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="T19" t="s">
+      <c r="U19" t="s">
         <v>26</v>
       </c>
-      <c r="V19" s="3" t="s">
+      <c r="W19" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="W19" t="s">
+      <c r="X19" t="s">
         <v>33</v>
       </c>
-      <c r="X19" t="s">
+      <c r="Y19" t="s">
         <v>35</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="Z19" t="s">
         <v>37</v>
       </c>
-      <c r="Z19" t="s">
+      <c r="AA19" t="s">
         <v>36</v>
       </c>
-      <c r="AA19" t="s">
+      <c r="AB19" t="s">
         <v>43</v>
       </c>
-      <c r="AB19" t="s">
+      <c r="AC19" t="s">
         <v>48</v>
       </c>
-      <c r="AC19" t="s">
+      <c r="AD19" t="s">
         <v>49</v>
       </c>
-      <c r="AD19" t="s">
+      <c r="AE19" t="s">
         <v>50</v>
       </c>
-      <c r="AE19" s="3">
+      <c r="AF19" s="3">
         <v>2</v>
       </c>
-      <c r="AF19" t="s">
+      <c r="AG19" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="D20" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="E20" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="F20" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="G20" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="H20" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>12345678</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="J20" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="K20" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>8</v>
       </c>
-      <c r="L20" t="s">
+      <c r="M20" t="s">
         <v>10</v>
       </c>
-      <c r="M20" t="s">
+      <c r="N20" t="s">
         <v>9</v>
       </c>
-      <c r="N20" t="s">
+      <c r="O20" t="s">
         <v>11</v>
       </c>
-      <c r="O20" t="s">
+      <c r="P20" t="s">
         <v>16</v>
       </c>
-      <c r="P20" t="s">
+      <c r="Q20" t="s">
         <v>19</v>
       </c>
-      <c r="Q20" s="5" t="s">
+      <c r="R20" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="R20" s="2" t="s">
+      <c r="S20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="T20" t="s">
+      <c r="U20" t="s">
         <v>31</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>1000</v>
       </c>
-      <c r="V20" s="3" t="s">
+      <c r="W20" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="W20" t="s">
+      <c r="X20" t="s">
         <v>33</v>
       </c>
-      <c r="X20" t="s">
+      <c r="Y20" t="s">
         <v>35</v>
       </c>
-      <c r="Y20" t="s">
+      <c r="Z20" t="s">
         <v>37</v>
       </c>
-      <c r="Z20" t="s">
+      <c r="AA20" t="s">
         <v>36</v>
       </c>
-      <c r="AA20" t="s">
+      <c r="AB20" t="s">
         <v>43</v>
       </c>
-      <c r="AB20" t="s">
+      <c r="AC20" t="s">
         <v>48</v>
       </c>
-      <c r="AC20" t="s">
+      <c r="AD20" t="s">
         <v>49</v>
       </c>
-      <c r="AD20" t="s">
+      <c r="AE20" t="s">
         <v>50</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>2</v>
       </c>
-      <c r="AF20" t="s">
+      <c r="AG20" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="D21" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="E21" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="F21" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="H21" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>12345678</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>20</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="K21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>8</v>
       </c>
-      <c r="L21" t="s">
+      <c r="M21" t="s">
         <v>10</v>
       </c>
-      <c r="M21" t="s">
+      <c r="N21" t="s">
         <v>9</v>
       </c>
-      <c r="N21" t="s">
+      <c r="O21" t="s">
         <v>11</v>
       </c>
-      <c r="O21" t="s">
+      <c r="P21" t="s">
         <v>16</v>
       </c>
-      <c r="P21" t="s">
+      <c r="Q21" t="s">
         <v>19</v>
       </c>
-      <c r="Q21" s="5" t="s">
+      <c r="R21" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="R21" s="2" t="s">
+      <c r="S21" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="T21" t="s">
+      <c r="U21" t="s">
         <v>26</v>
       </c>
-      <c r="V21" s="3" t="s">
+      <c r="W21" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="W21" t="s">
+      <c r="X21" t="s">
         <v>33</v>
       </c>
-      <c r="X21" t="s">
+      <c r="Y21" t="s">
         <v>35</v>
       </c>
-      <c r="Y21" t="s">
+      <c r="Z21" t="s">
         <v>37</v>
       </c>
-      <c r="Z21" t="s">
+      <c r="AA21" t="s">
         <v>36</v>
       </c>
-      <c r="AA21" t="s">
+      <c r="AB21" t="s">
         <v>43</v>
       </c>
-      <c r="AB21" t="s">
+      <c r="AC21" t="s">
         <v>48</v>
       </c>
-      <c r="AC21" t="s">
+      <c r="AD21" t="s">
         <v>49</v>
       </c>
-      <c r="AD21" t="s">
+      <c r="AE21" t="s">
         <v>50</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>2</v>
       </c>
-      <c r="AF21" t="s">
+      <c r="AG21" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="D22" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="E22" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="F22" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="G22" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="H22" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>12345678</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>20</v>
       </c>
-      <c r="J22" s="1" t="s">
+      <c r="K22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>8</v>
       </c>
-      <c r="L22" t="s">
+      <c r="M22" t="s">
         <v>10</v>
       </c>
-      <c r="M22" t="s">
+      <c r="N22" t="s">
         <v>9</v>
       </c>
-      <c r="N22" t="s">
+      <c r="O22" t="s">
         <v>11</v>
       </c>
-      <c r="O22" t="s">
+      <c r="P22" t="s">
         <v>16</v>
       </c>
-      <c r="P22" t="s">
+      <c r="Q22" t="s">
         <v>19</v>
       </c>
-      <c r="Q22" s="5" t="s">
+      <c r="R22" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="R22" s="2" t="s">
+      <c r="S22" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="T22" t="s">
+      <c r="U22" t="s">
         <v>26</v>
       </c>
-      <c r="V22" s="3" t="s">
+      <c r="W22" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="W22" t="s">
+      <c r="X22" t="s">
         <v>33</v>
       </c>
-      <c r="X22" t="s">
+      <c r="Y22" t="s">
         <v>35</v>
       </c>
-      <c r="Y22" t="s">
+      <c r="Z22" t="s">
         <v>37</v>
       </c>
-      <c r="Z22" t="s">
+      <c r="AA22" t="s">
         <v>36</v>
       </c>
-      <c r="AA22" t="s">
+      <c r="AB22" t="s">
         <v>43</v>
       </c>
-      <c r="AB22" t="s">
+      <c r="AC22" t="s">
         <v>48</v>
       </c>
-      <c r="AC22" t="s">
+      <c r="AD22" t="s">
         <v>49</v>
       </c>
-      <c r="AD22" t="s">
+      <c r="AE22" t="s">
         <v>50</v>
       </c>
-      <c r="AE22" s="3">
+      <c r="AF22" s="3">
         <v>2</v>
       </c>
-      <c r="AF22" t="s">
+      <c r="AG22" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="D23" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="E23" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="F23" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="G23" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="H23" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>12345678</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>20</v>
       </c>
-      <c r="J23" s="1" t="s">
+      <c r="K23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>8</v>
       </c>
-      <c r="L23" t="s">
+      <c r="M23" t="s">
         <v>10</v>
       </c>
-      <c r="M23" t="s">
+      <c r="N23" t="s">
         <v>9</v>
       </c>
-      <c r="N23" t="s">
+      <c r="O23" t="s">
         <v>11</v>
       </c>
-      <c r="O23" t="s">
+      <c r="P23" t="s">
         <v>16</v>
       </c>
-      <c r="P23" t="s">
+      <c r="Q23" t="s">
         <v>19</v>
       </c>
-      <c r="Q23" s="5" t="s">
+      <c r="R23" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="R23" s="2" t="s">
+      <c r="S23" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="T23" t="s">
+      <c r="U23" t="s">
         <v>31</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>1000</v>
       </c>
-      <c r="V23" s="3" t="s">
+      <c r="W23" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="W23" t="s">
+      <c r="X23" t="s">
         <v>33</v>
       </c>
-      <c r="X23" t="s">
+      <c r="Y23" t="s">
         <v>35</v>
       </c>
-      <c r="Y23" t="s">
+      <c r="Z23" t="s">
         <v>37</v>
       </c>
-      <c r="Z23" t="s">
+      <c r="AA23" t="s">
         <v>36</v>
       </c>
-      <c r="AA23" t="s">
+      <c r="AB23" t="s">
         <v>43</v>
       </c>
-      <c r="AB23" t="s">
+      <c r="AC23" t="s">
         <v>48</v>
       </c>
-      <c r="AC23" t="s">
+      <c r="AD23" t="s">
         <v>49</v>
       </c>
-      <c r="AD23" t="s">
+      <c r="AE23" t="s">
         <v>50</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>2</v>
       </c>
-      <c r="AF23" t="s">
+      <c r="AG23" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="D24" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="E24" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="F24" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="G24" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="H24" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>12345678</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>20</v>
       </c>
-      <c r="J24" s="1" t="s">
+      <c r="K24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>8</v>
       </c>
-      <c r="L24" t="s">
+      <c r="M24" t="s">
         <v>10</v>
       </c>
-      <c r="M24" t="s">
+      <c r="N24" t="s">
         <v>9</v>
       </c>
-      <c r="N24" t="s">
+      <c r="O24" t="s">
         <v>11</v>
       </c>
-      <c r="O24" t="s">
+      <c r="P24" t="s">
         <v>16</v>
       </c>
-      <c r="P24" t="s">
+      <c r="Q24" t="s">
         <v>19</v>
       </c>
-      <c r="Q24" s="5" t="s">
+      <c r="R24" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="R24" s="2" t="s">
+      <c r="S24" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="T24" t="s">
+      <c r="U24" t="s">
         <v>26</v>
       </c>
-      <c r="V24" s="3" t="s">
+      <c r="W24" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="W24" t="s">
+      <c r="X24" t="s">
         <v>33</v>
       </c>
-      <c r="X24" t="s">
+      <c r="Y24" t="s">
         <v>35</v>
       </c>
-      <c r="Y24" t="s">
+      <c r="Z24" t="s">
         <v>37</v>
       </c>
-      <c r="Z24" t="s">
+      <c r="AA24" t="s">
         <v>36</v>
       </c>
-      <c r="AA24" t="s">
+      <c r="AB24" t="s">
         <v>43</v>
       </c>
-      <c r="AB24" t="s">
+      <c r="AC24" t="s">
         <v>48</v>
       </c>
-      <c r="AC24" t="s">
+      <c r="AD24" t="s">
         <v>49</v>
       </c>
-      <c r="AD24" t="s">
+      <c r="AE24" t="s">
         <v>50</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>2</v>
       </c>
-      <c r="AF24" t="s">
+      <c r="AG24" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="D25" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="E25" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="F25" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="G25" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="H25" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>12345678</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>20</v>
       </c>
-      <c r="J25" s="1" t="s">
+      <c r="K25" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>8</v>
       </c>
-      <c r="L25" t="s">
+      <c r="M25" t="s">
         <v>10</v>
       </c>
-      <c r="M25" t="s">
+      <c r="N25" t="s">
         <v>9</v>
       </c>
-      <c r="N25" t="s">
+      <c r="O25" t="s">
         <v>11</v>
       </c>
-      <c r="O25" t="s">
+      <c r="P25" t="s">
         <v>16</v>
       </c>
-      <c r="P25" t="s">
+      <c r="Q25" t="s">
         <v>19</v>
       </c>
-      <c r="Q25" s="5" t="s">
+      <c r="R25" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="R25" s="2" t="s">
+      <c r="S25" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="T25" t="s">
+      <c r="U25" t="s">
         <v>31</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>1000</v>
       </c>
-      <c r="V25" s="3" t="s">
+      <c r="W25" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="W25" t="s">
+      <c r="X25" t="s">
         <v>33</v>
       </c>
-      <c r="X25" t="s">
+      <c r="Y25" t="s">
         <v>35</v>
       </c>
-      <c r="Y25" t="s">
+      <c r="Z25" t="s">
         <v>37</v>
       </c>
-      <c r="Z25" t="s">
+      <c r="AA25" t="s">
         <v>36</v>
       </c>
-      <c r="AA25" t="s">
+      <c r="AB25" t="s">
         <v>43</v>
       </c>
-      <c r="AB25" t="s">
+      <c r="AC25" t="s">
         <v>48</v>
       </c>
-      <c r="AC25" t="s">
+      <c r="AD25" t="s">
         <v>49</v>
       </c>
-      <c r="AD25" t="s">
+      <c r="AE25" t="s">
         <v>50</v>
       </c>
-      <c r="AE25" s="3">
+      <c r="AF25" s="3">
         <v>2</v>
       </c>
-      <c r="AF25" t="s">
+      <c r="AG25" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="D26" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="E26" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="F26" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="G26" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="H26" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>12345678</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>20</v>
       </c>
-      <c r="J26" s="1" t="s">
+      <c r="K26" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>8</v>
       </c>
-      <c r="L26" t="s">
+      <c r="M26" t="s">
         <v>10</v>
       </c>
-      <c r="M26" t="s">
+      <c r="N26" t="s">
         <v>9</v>
       </c>
-      <c r="N26" t="s">
+      <c r="O26" t="s">
         <v>11</v>
       </c>
-      <c r="O26" t="s">
+      <c r="P26" t="s">
         <v>16</v>
       </c>
-      <c r="P26" t="s">
+      <c r="Q26" t="s">
         <v>19</v>
       </c>
-      <c r="Q26" s="5" t="s">
+      <c r="R26" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="R26" s="2" t="s">
+      <c r="S26" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="T26" t="s">
+      <c r="U26" t="s">
         <v>26</v>
       </c>
-      <c r="V26" s="3" t="s">
+      <c r="W26" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="W26" t="s">
+      <c r="X26" t="s">
         <v>33</v>
       </c>
-      <c r="X26" t="s">
+      <c r="Y26" t="s">
         <v>35</v>
       </c>
-      <c r="Y26" t="s">
+      <c r="Z26" t="s">
         <v>37</v>
       </c>
-      <c r="Z26" t="s">
+      <c r="AA26" t="s">
         <v>36</v>
       </c>
-      <c r="AA26" t="s">
+      <c r="AB26" t="s">
         <v>43</v>
       </c>
-      <c r="AB26" t="s">
+      <c r="AC26" t="s">
         <v>48</v>
       </c>
-      <c r="AC26" t="s">
+      <c r="AD26" t="s">
         <v>49</v>
       </c>
-      <c r="AD26" t="s">
+      <c r="AE26" t="s">
         <v>50</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>2</v>
       </c>
-      <c r="AF26" t="s">
+      <c r="AG26" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="D27" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="E27" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="F27" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="G27" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G27" s="5" t="s">
+      <c r="H27" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>12345678</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>20</v>
       </c>
-      <c r="J27" s="1" t="s">
+      <c r="K27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
         <v>8</v>
       </c>
-      <c r="L27" t="s">
+      <c r="M27" t="s">
         <v>10</v>
       </c>
-      <c r="M27" t="s">
+      <c r="N27" t="s">
         <v>9</v>
       </c>
-      <c r="N27" t="s">
+      <c r="O27" t="s">
         <v>11</v>
       </c>
-      <c r="O27" t="s">
+      <c r="P27" t="s">
         <v>16</v>
       </c>
-      <c r="P27" t="s">
+      <c r="Q27" t="s">
         <v>19</v>
       </c>
-      <c r="Q27" s="5" t="s">
+      <c r="R27" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="R27" s="2" t="s">
+      <c r="S27" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="T27" t="s">
+      <c r="U27" t="s">
         <v>26</v>
       </c>
-      <c r="V27" s="3" t="s">
+      <c r="W27" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="W27" t="s">
+      <c r="X27" t="s">
         <v>33</v>
       </c>
-      <c r="X27" t="s">
+      <c r="Y27" t="s">
         <v>35</v>
       </c>
-      <c r="Y27" t="s">
+      <c r="Z27" t="s">
         <v>37</v>
       </c>
-      <c r="Z27" t="s">
+      <c r="AA27" t="s">
         <v>36</v>
       </c>
-      <c r="AA27" t="s">
+      <c r="AB27" t="s">
         <v>43</v>
       </c>
-      <c r="AB27" t="s">
+      <c r="AC27" t="s">
         <v>48</v>
       </c>
-      <c r="AC27" t="s">
+      <c r="AD27" t="s">
         <v>49</v>
       </c>
-      <c r="AD27" t="s">
+      <c r="AE27" t="s">
         <v>50</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>2</v>
       </c>
-      <c r="AF27" t="s">
+      <c r="AG27" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="D28" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="E28" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="F28" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="G28" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G28" s="5" t="s">
+      <c r="H28" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>12345678</v>
       </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>20</v>
       </c>
-      <c r="J28" s="1" t="s">
+      <c r="K28" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
         <v>8</v>
       </c>
-      <c r="L28" t="s">
+      <c r="M28" t="s">
         <v>10</v>
       </c>
-      <c r="M28" t="s">
+      <c r="N28" t="s">
         <v>9</v>
       </c>
-      <c r="N28" t="s">
+      <c r="O28" t="s">
         <v>11</v>
       </c>
-      <c r="O28" t="s">
+      <c r="P28" t="s">
         <v>16</v>
       </c>
-      <c r="P28" t="s">
+      <c r="Q28" t="s">
         <v>19</v>
       </c>
-      <c r="Q28" s="5" t="s">
+      <c r="R28" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="R28" s="2" t="s">
+      <c r="S28" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="T28" t="s">
+      <c r="U28" t="s">
         <v>31</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>1000</v>
       </c>
-      <c r="V28" s="3" t="s">
+      <c r="W28" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="W28" t="s">
+      <c r="X28" t="s">
         <v>33</v>
       </c>
-      <c r="X28" t="s">
+      <c r="Y28" t="s">
         <v>35</v>
       </c>
-      <c r="Y28" t="s">
+      <c r="Z28" t="s">
         <v>37</v>
       </c>
-      <c r="Z28" t="s">
+      <c r="AA28" t="s">
         <v>36</v>
       </c>
-      <c r="AA28" t="s">
+      <c r="AB28" t="s">
         <v>43</v>
       </c>
-      <c r="AB28" t="s">
+      <c r="AC28" t="s">
         <v>48</v>
       </c>
-      <c r="AC28" t="s">
+      <c r="AD28" t="s">
         <v>49</v>
       </c>
-      <c r="AD28" t="s">
+      <c r="AE28" t="s">
         <v>50</v>
       </c>
-      <c r="AE28" s="3">
+      <c r="AF28" s="3">
         <v>2</v>
       </c>
-      <c r="AF28" t="s">
+      <c r="AG28" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="D29" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="E29" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="F29" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="G29" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="H29" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>12345678</v>
       </c>
-      <c r="I29" t="s">
+      <c r="J29" t="s">
         <v>20</v>
       </c>
-      <c r="J29" s="1" t="s">
+      <c r="K29" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K29" t="s">
+      <c r="L29" t="s">
         <v>8</v>
       </c>
-      <c r="L29" t="s">
+      <c r="M29" t="s">
         <v>10</v>
       </c>
-      <c r="M29" t="s">
+      <c r="N29" t="s">
         <v>9</v>
       </c>
-      <c r="N29" t="s">
+      <c r="O29" t="s">
         <v>11</v>
       </c>
-      <c r="O29" t="s">
+      <c r="P29" t="s">
         <v>16</v>
       </c>
-      <c r="P29" t="s">
+      <c r="Q29" t="s">
         <v>19</v>
       </c>
-      <c r="Q29" s="5" t="s">
+      <c r="R29" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="R29" s="2" t="s">
+      <c r="S29" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="T29" t="s">
+      <c r="U29" t="s">
         <v>26</v>
       </c>
-      <c r="V29" s="3" t="s">
+      <c r="W29" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="W29" t="s">
+      <c r="X29" t="s">
         <v>33</v>
       </c>
-      <c r="X29" t="s">
+      <c r="Y29" t="s">
         <v>35</v>
       </c>
-      <c r="Y29" t="s">
+      <c r="Z29" t="s">
         <v>37</v>
       </c>
-      <c r="Z29" t="s">
+      <c r="AA29" t="s">
         <v>36</v>
       </c>
-      <c r="AA29" t="s">
+      <c r="AB29" t="s">
         <v>43</v>
       </c>
-      <c r="AB29" t="s">
+      <c r="AC29" t="s">
         <v>48</v>
       </c>
-      <c r="AC29" t="s">
+      <c r="AD29" t="s">
         <v>49</v>
       </c>
-      <c r="AD29" t="s">
+      <c r="AE29" t="s">
         <v>50</v>
       </c>
-      <c r="AE29" s="3">
+      <c r="AF29" s="3">
         <v>2</v>
       </c>
-      <c r="AF29" t="s">
+      <c r="AG29" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="D30" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="E30" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="F30" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="G30" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G30" s="5" t="s">
+      <c r="H30" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>12345678</v>
       </c>
-      <c r="I30" t="s">
+      <c r="J30" t="s">
         <v>20</v>
       </c>
-      <c r="J30" s="1" t="s">
+      <c r="K30" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K30" t="s">
+      <c r="L30" t="s">
         <v>8</v>
       </c>
-      <c r="L30" t="s">
+      <c r="M30" t="s">
         <v>10</v>
       </c>
-      <c r="M30" t="s">
+      <c r="N30" t="s">
         <v>9</v>
       </c>
-      <c r="N30" t="s">
+      <c r="O30" t="s">
         <v>11</v>
       </c>
-      <c r="O30" t="s">
+      <c r="P30" t="s">
         <v>16</v>
       </c>
-      <c r="P30" t="s">
+      <c r="Q30" t="s">
         <v>19</v>
       </c>
-      <c r="Q30" s="5" t="s">
+      <c r="R30" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="R30" s="2" t="s">
+      <c r="S30" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="T30" t="s">
+      <c r="U30" t="s">
         <v>26</v>
       </c>
-      <c r="V30" s="3" t="s">
+      <c r="W30" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="W30" t="s">
+      <c r="X30" t="s">
         <v>33</v>
       </c>
-      <c r="X30" t="s">
+      <c r="Y30" t="s">
         <v>35</v>
       </c>
-      <c r="Y30" t="s">
+      <c r="Z30" t="s">
         <v>37</v>
       </c>
-      <c r="Z30" t="s">
+      <c r="AA30" t="s">
         <v>36</v>
       </c>
-      <c r="AA30" t="s">
+      <c r="AB30" t="s">
         <v>43</v>
       </c>
-      <c r="AB30" t="s">
+      <c r="AC30" t="s">
         <v>48</v>
       </c>
-      <c r="AC30" t="s">
+      <c r="AD30" t="s">
         <v>49</v>
       </c>
-      <c r="AD30" t="s">
+      <c r="AE30" t="s">
         <v>50</v>
       </c>
-      <c r="AE30" s="3">
+      <c r="AF30" s="3">
         <v>2</v>
       </c>
-      <c r="AF30" t="s">
+      <c r="AG30" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="D31" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="E31" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="F31" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="G31" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G31" s="5" t="s">
+      <c r="H31" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>12345678</v>
       </c>
-      <c r="I31" t="s">
+      <c r="J31" t="s">
         <v>20</v>
       </c>
-      <c r="J31" s="1" t="s">
+      <c r="K31" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K31" t="s">
+      <c r="L31" t="s">
         <v>8</v>
       </c>
-      <c r="L31" t="s">
+      <c r="M31" t="s">
         <v>10</v>
       </c>
-      <c r="M31" t="s">
+      <c r="N31" t="s">
         <v>9</v>
       </c>
-      <c r="N31" t="s">
+      <c r="O31" t="s">
         <v>11</v>
       </c>
-      <c r="O31" t="s">
+      <c r="P31" t="s">
         <v>16</v>
       </c>
-      <c r="P31" t="s">
+      <c r="Q31" t="s">
         <v>19</v>
       </c>
-      <c r="Q31" s="5" t="s">
+      <c r="R31" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="R31" s="2" t="s">
+      <c r="S31" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="T31" t="s">
+      <c r="U31" t="s">
         <v>31</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>1000</v>
       </c>
-      <c r="V31" s="3" t="s">
+      <c r="W31" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="W31" t="s">
+      <c r="X31" t="s">
         <v>33</v>
       </c>
-      <c r="X31" t="s">
+      <c r="Y31" t="s">
         <v>35</v>
       </c>
-      <c r="Y31" t="s">
+      <c r="Z31" t="s">
         <v>37</v>
       </c>
-      <c r="Z31" t="s">
+      <c r="AA31" t="s">
         <v>36</v>
       </c>
-      <c r="AA31" t="s">
+      <c r="AB31" t="s">
         <v>43</v>
       </c>
-      <c r="AB31" t="s">
+      <c r="AC31" t="s">
         <v>48</v>
       </c>
-      <c r="AC31" t="s">
+      <c r="AD31" t="s">
         <v>49</v>
       </c>
-      <c r="AD31" t="s">
+      <c r="AE31" t="s">
         <v>50</v>
       </c>
-      <c r="AE31" s="3">
+      <c r="AF31" s="3">
         <v>2</v>
       </c>
-      <c r="AF31" t="s">
+      <c r="AG31" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="D32" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="E32" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="F32" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="G32" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G32" s="5" t="s">
+      <c r="H32" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>12345678</v>
       </c>
-      <c r="I32" t="s">
+      <c r="J32" t="s">
         <v>20</v>
       </c>
-      <c r="J32" s="1" t="s">
+      <c r="K32" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K32" t="s">
+      <c r="L32" t="s">
         <v>8</v>
       </c>
-      <c r="L32" t="s">
+      <c r="M32" t="s">
         <v>10</v>
       </c>
-      <c r="M32" t="s">
+      <c r="N32" t="s">
         <v>9</v>
       </c>
-      <c r="N32" t="s">
+      <c r="O32" t="s">
         <v>11</v>
       </c>
-      <c r="O32" t="s">
+      <c r="P32" t="s">
         <v>16</v>
       </c>
-      <c r="P32" t="s">
+      <c r="Q32" t="s">
         <v>19</v>
       </c>
-      <c r="Q32" s="5" t="s">
+      <c r="R32" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="R32" s="2" t="s">
+      <c r="S32" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="T32" t="s">
+      <c r="U32" t="s">
         <v>26</v>
       </c>
-      <c r="V32" s="3" t="s">
+      <c r="W32" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="W32" t="s">
+      <c r="X32" t="s">
         <v>33</v>
       </c>
-      <c r="X32" t="s">
+      <c r="Y32" t="s">
         <v>35</v>
       </c>
-      <c r="Y32" t="s">
+      <c r="Z32" t="s">
         <v>37</v>
       </c>
-      <c r="Z32" t="s">
+      <c r="AA32" t="s">
         <v>36</v>
       </c>
-      <c r="AA32" t="s">
+      <c r="AB32" t="s">
         <v>43</v>
       </c>
-      <c r="AB32" t="s">
+      <c r="AC32" t="s">
         <v>48</v>
       </c>
-      <c r="AC32" t="s">
+      <c r="AD32" t="s">
         <v>49</v>
       </c>
-      <c r="AD32" t="s">
+      <c r="AE32" t="s">
         <v>50</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>2</v>
       </c>
-      <c r="AF32" t="s">
+      <c r="AG32" t="s">
         <v>144</v>
       </c>
     </row>
